--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Sema3c-Nrp2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Sema3c-Nrp2.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.317833</v>
+        <v>1.034649</v>
       </c>
       <c r="H2">
-        <v>0.953499</v>
+        <v>3.103947</v>
       </c>
       <c r="I2">
-        <v>0.00735622594276287</v>
+        <v>0.02307585235784855</v>
       </c>
       <c r="J2">
-        <v>0.007356225942762871</v>
+        <v>0.02307585235784855</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>35.31114333333333</v>
+        <v>70.23436</v>
       </c>
       <c r="N2">
-        <v>105.93343</v>
+        <v>210.70308</v>
       </c>
       <c r="O2">
-        <v>0.6187867769880316</v>
+        <v>0.7023186840741513</v>
       </c>
       <c r="P2">
-        <v>0.6187867769880318</v>
+        <v>0.7023186840741513</v>
       </c>
       <c r="Q2">
-        <v>11.22304661906333</v>
+        <v>72.66791033963999</v>
       </c>
       <c r="R2">
-        <v>101.00741957157</v>
+        <v>654.0111930567599</v>
       </c>
       <c r="S2">
-        <v>0.004551935341917981</v>
+        <v>0.0162066022618536</v>
       </c>
       <c r="T2">
-        <v>0.004551935341917983</v>
+        <v>0.0162066022618536</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.317833</v>
+        <v>1.034649</v>
       </c>
       <c r="H3">
-        <v>0.953499</v>
+        <v>3.103947</v>
       </c>
       <c r="I3">
-        <v>0.00735622594276287</v>
+        <v>0.02307585235784855</v>
       </c>
       <c r="J3">
-        <v>0.007356225942762871</v>
+        <v>0.02307585235784855</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>19.654086</v>
       </c>
       <c r="O3">
-        <v>0.1148050103785518</v>
+        <v>0.06551129587759326</v>
       </c>
       <c r="P3">
-        <v>0.1148050103785518</v>
+        <v>0.06551129587759325</v>
       </c>
       <c r="Q3">
-        <v>2.082239038546</v>
+        <v>6.778360141937999</v>
       </c>
       <c r="R3">
-        <v>18.740151346914</v>
+        <v>61.005241277442</v>
       </c>
       <c r="S3">
-        <v>0.0008445315957058636</v>
+        <v>0.001511728991442675</v>
       </c>
       <c r="T3">
-        <v>0.0008445315957058638</v>
+        <v>0.001511728991442674</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.317833</v>
+        <v>1.034649</v>
       </c>
       <c r="H4">
-        <v>0.953499</v>
+        <v>3.103947</v>
       </c>
       <c r="I4">
-        <v>0.00735622594276287</v>
+        <v>0.02307585235784855</v>
       </c>
       <c r="J4">
-        <v>0.007356225942762871</v>
+        <v>0.02307585235784855</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.250702333333333</v>
+        <v>4.268944666666666</v>
       </c>
       <c r="N4">
-        <v>12.752107</v>
+        <v>12.806834</v>
       </c>
       <c r="O4">
-        <v>0.07448862167812857</v>
+        <v>0.04268793224112385</v>
       </c>
       <c r="P4">
-        <v>0.07448862167812859</v>
+        <v>0.04268793224112385</v>
       </c>
       <c r="Q4">
-        <v>1.351013474710333</v>
+        <v>4.416859330421999</v>
       </c>
       <c r="R4">
-        <v>12.159121272393</v>
+        <v>39.75173397379799</v>
       </c>
       <c r="S4">
-        <v>0.0005479551312292982</v>
+        <v>0.0009850604218580171</v>
       </c>
       <c r="T4">
-        <v>0.0005479551312292983</v>
+        <v>0.0009850604218580171</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.317833</v>
+        <v>1.034649</v>
       </c>
       <c r="H5">
-        <v>0.953499</v>
+        <v>3.103947</v>
       </c>
       <c r="I5">
-        <v>0.00735622594276287</v>
+        <v>0.02307585235784855</v>
       </c>
       <c r="J5">
-        <v>0.007356225942762871</v>
+        <v>0.02307585235784855</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.951915</v>
+        <v>18.948881</v>
       </c>
       <c r="N5">
-        <v>32.855745</v>
+        <v>56.846643</v>
       </c>
       <c r="O5">
-        <v>0.191919590955288</v>
+        <v>0.1894820878071316</v>
       </c>
       <c r="P5">
-        <v>0.191919590955288</v>
+        <v>0.1894820878071315</v>
       </c>
       <c r="Q5">
-        <v>3.480880000195</v>
+        <v>19.605440777769</v>
       </c>
       <c r="R5">
-        <v>31.327920001755</v>
+        <v>176.448966999921</v>
       </c>
       <c r="S5">
-        <v>0.001411803873909728</v>
+        <v>0.004372460682694264</v>
       </c>
       <c r="T5">
-        <v>0.001411803873909728</v>
+        <v>0.004372460682694263</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>122.959687</v>
       </c>
       <c r="I6">
-        <v>0.9486315553801341</v>
+        <v>0.9141262989281937</v>
       </c>
       <c r="J6">
-        <v>0.9486315553801342</v>
+        <v>0.9141262989281937</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>35.31114333333333</v>
+        <v>70.23436</v>
       </c>
       <c r="N6">
-        <v>105.93343</v>
+        <v>210.70308</v>
       </c>
       <c r="O6">
-        <v>0.6187867769880316</v>
+        <v>0.7023186840741513</v>
       </c>
       <c r="P6">
-        <v>0.6187867769880318</v>
+        <v>0.7023186840741513</v>
       </c>
       <c r="Q6">
-        <v>1447.282377292934</v>
+        <v>2878.664974081773</v>
       </c>
       <c r="R6">
-        <v>13025.54139563641</v>
+        <v>25907.98476673596</v>
       </c>
       <c r="S6">
-        <v>0.5870006627028166</v>
+        <v>0.6420079793408233</v>
       </c>
       <c r="T6">
-        <v>0.5870006627028168</v>
+        <v>0.6420079793408233</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>122.959687</v>
       </c>
       <c r="I7">
-        <v>0.9486315553801341</v>
+        <v>0.9141262989281937</v>
       </c>
       <c r="J7">
-        <v>0.9486315553801342</v>
+        <v>0.9141262989281937</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>19.654086</v>
       </c>
       <c r="O7">
-        <v>0.1148050103785518</v>
+        <v>0.06551129587759326</v>
       </c>
       <c r="P7">
-        <v>0.1148050103785518</v>
+        <v>0.06551129587759325</v>
       </c>
       <c r="Q7">
         <v>268.5178069812313</v>
@@ -883,10 +883,10 @@
         <v>2416.660262831082</v>
       </c>
       <c r="S7">
-        <v>0.1089076555608381</v>
+        <v>0.05988559843857416</v>
       </c>
       <c r="T7">
-        <v>0.1089076555608381</v>
+        <v>0.05988559843857415</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>122.959687</v>
       </c>
       <c r="I8">
-        <v>0.9486315553801341</v>
+        <v>0.9141262989281937</v>
       </c>
       <c r="J8">
-        <v>0.9486315553801342</v>
+        <v>0.9141262989281937</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.250702333333333</v>
+        <v>4.268944666666666</v>
       </c>
       <c r="N8">
-        <v>12.752107</v>
+        <v>12.806834</v>
       </c>
       <c r="O8">
-        <v>0.07448862167812857</v>
+        <v>0.04268793224112385</v>
       </c>
       <c r="P8">
-        <v>0.07448862167812859</v>
+        <v>0.04268793224112385</v>
       </c>
       <c r="Q8">
-        <v>174.2216761456121</v>
+        <v>174.9693666778842</v>
       </c>
       <c r="R8">
-        <v>1567.995085310509</v>
+        <v>1574.724300100958</v>
       </c>
       <c r="S8">
-        <v>0.07066225704064548</v>
+        <v>0.03902216150847607</v>
       </c>
       <c r="T8">
-        <v>0.07066225704064551</v>
+        <v>0.03902216150847607</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>122.959687</v>
       </c>
       <c r="I9">
-        <v>0.9486315553801341</v>
+        <v>0.9141262989281937</v>
       </c>
       <c r="J9">
-        <v>0.9486315553801342</v>
+        <v>0.9141262989281937</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>10.951915</v>
+        <v>18.948881</v>
       </c>
       <c r="N9">
-        <v>32.855745</v>
+        <v>56.846643</v>
       </c>
       <c r="O9">
-        <v>0.191919590955288</v>
+        <v>0.1894820878071316</v>
       </c>
       <c r="P9">
-        <v>0.191919590955288</v>
+        <v>0.1894820878071315</v>
       </c>
       <c r="Q9">
-        <v>448.8813468168683</v>
+        <v>776.6494922534156</v>
       </c>
       <c r="R9">
-        <v>4039.932121351815</v>
+        <v>6989.845430280741</v>
       </c>
       <c r="S9">
-        <v>0.182060980075834</v>
+        <v>0.1732105596403202</v>
       </c>
       <c r="T9">
-        <v>0.182060980075834</v>
+        <v>0.1732105596403202</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.882194666666667</v>
+        <v>2.775347666666667</v>
       </c>
       <c r="H10">
-        <v>5.646584</v>
+        <v>8.326043</v>
       </c>
       <c r="I10">
-        <v>0.04356328397700443</v>
+        <v>0.06189878209682655</v>
       </c>
       <c r="J10">
-        <v>0.04356328397700442</v>
+        <v>0.06189878209682655</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>35.31114333333333</v>
+        <v>70.23436</v>
       </c>
       <c r="N10">
-        <v>105.93343</v>
+        <v>210.70308</v>
       </c>
       <c r="O10">
-        <v>0.6187867769880316</v>
+        <v>0.7023186840741513</v>
       </c>
       <c r="P10">
-        <v>0.6187867769880318</v>
+        <v>0.7023186840741513</v>
       </c>
       <c r="Q10">
-        <v>66.46244565590223</v>
+        <v>194.9247671458266</v>
       </c>
       <c r="R10">
-        <v>598.1620109031199</v>
+        <v>1754.32290431244</v>
       </c>
       <c r="S10">
-        <v>0.02695638408714493</v>
+        <v>0.04347267118803586</v>
       </c>
       <c r="T10">
-        <v>0.02695638408714493</v>
+        <v>0.04347267118803586</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.882194666666667</v>
+        <v>2.775347666666667</v>
       </c>
       <c r="H11">
-        <v>5.646584</v>
+        <v>8.326043</v>
       </c>
       <c r="I11">
-        <v>0.04356328397700443</v>
+        <v>0.06189878209682655</v>
       </c>
       <c r="J11">
-        <v>0.04356328397700442</v>
+        <v>0.06189878209682655</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>19.654086</v>
       </c>
       <c r="O11">
-        <v>0.1148050103785518</v>
+        <v>0.06551129587759326</v>
       </c>
       <c r="P11">
-        <v>0.1148050103785518</v>
+        <v>0.06551129587759325</v>
       </c>
       <c r="Q11">
-        <v>12.33093861580267</v>
+        <v>18.18230724018867</v>
       </c>
       <c r="R11">
-        <v>110.978447542224</v>
+        <v>163.640765161698</v>
       </c>
       <c r="S11">
-        <v>0.005001283269103794</v>
+        <v>0.004055069428407877</v>
       </c>
       <c r="T11">
-        <v>0.005001283269103794</v>
+        <v>0.004055069428407876</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.882194666666667</v>
+        <v>2.775347666666667</v>
       </c>
       <c r="H12">
-        <v>5.646584</v>
+        <v>8.326043</v>
       </c>
       <c r="I12">
-        <v>0.04356328397700443</v>
+        <v>0.06189878209682655</v>
       </c>
       <c r="J12">
-        <v>0.04356328397700442</v>
+        <v>0.06189878209682655</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.250702333333333</v>
+        <v>4.268944666666666</v>
       </c>
       <c r="N12">
-        <v>12.752107</v>
+        <v>12.806834</v>
       </c>
       <c r="O12">
-        <v>0.07448862167812857</v>
+        <v>0.04268793224112385</v>
       </c>
       <c r="P12">
-        <v>0.07448862167812859</v>
+        <v>0.04268793224112385</v>
       </c>
       <c r="Q12">
-        <v>8.000649261387554</v>
+        <v>11.84780561976244</v>
       </c>
       <c r="R12">
-        <v>72.00584335248799</v>
+        <v>106.630250577862</v>
       </c>
       <c r="S12">
-        <v>0.003244968979219963</v>
+        <v>0.002642331015957422</v>
       </c>
       <c r="T12">
-        <v>0.003244968979219963</v>
+        <v>0.002642331015957422</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.882194666666667</v>
+        <v>2.775347666666667</v>
       </c>
       <c r="H13">
-        <v>5.646584</v>
+        <v>8.326043</v>
       </c>
       <c r="I13">
-        <v>0.04356328397700443</v>
+        <v>0.06189878209682655</v>
       </c>
       <c r="J13">
-        <v>0.04356328397700442</v>
+        <v>0.06189878209682655</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>10.951915</v>
+        <v>18.948881</v>
       </c>
       <c r="N13">
-        <v>32.855745</v>
+        <v>56.846643</v>
       </c>
       <c r="O13">
-        <v>0.191919590955288</v>
+        <v>0.1894820878071316</v>
       </c>
       <c r="P13">
-        <v>0.191919590955288</v>
+        <v>0.1894820878071315</v>
       </c>
       <c r="Q13">
-        <v>20.61363600278667</v>
+        <v>52.58973266929434</v>
       </c>
       <c r="R13">
-        <v>185.52272402508</v>
+        <v>473.307594023649</v>
       </c>
       <c r="S13">
-        <v>0.008360647641535742</v>
+        <v>0.01172871046442539</v>
       </c>
       <c r="T13">
-        <v>0.008360647641535742</v>
+        <v>0.01172871046442539</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.01939666666666667</v>
+        <v>0.04031133333333333</v>
       </c>
       <c r="H14">
-        <v>0.05819</v>
+        <v>0.120934</v>
       </c>
       <c r="I14">
-        <v>0.0004489347000986592</v>
+        <v>0.0008990666171310454</v>
       </c>
       <c r="J14">
-        <v>0.0004489347000986592</v>
+        <v>0.0008990666171310454</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>35.31114333333333</v>
+        <v>70.23436</v>
       </c>
       <c r="N14">
-        <v>105.93343</v>
+        <v>210.70308</v>
       </c>
       <c r="O14">
-        <v>0.6187867769880316</v>
+        <v>0.7023186840741513</v>
       </c>
       <c r="P14">
-        <v>0.6187867769880318</v>
+        <v>0.7023186840741513</v>
       </c>
       <c r="Q14">
-        <v>0.6849184768555555</v>
+        <v>2.831240697413333</v>
       </c>
       <c r="R14">
-        <v>6.1642662917</v>
+        <v>25.48116627672</v>
       </c>
       <c r="S14">
-        <v>0.0002777948561521379</v>
+        <v>0.0006314312834384746</v>
       </c>
       <c r="T14">
-        <v>0.0002777948561521379</v>
+        <v>0.0006314312834384746</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.01939666666666667</v>
+        <v>0.04031133333333333</v>
       </c>
       <c r="H15">
-        <v>0.05819</v>
+        <v>0.120934</v>
       </c>
       <c r="I15">
-        <v>0.0004489347000986592</v>
+        <v>0.0008990666171310454</v>
       </c>
       <c r="J15">
-        <v>0.0004489347000986592</v>
+        <v>0.0008990666171310454</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>19.654086</v>
       </c>
       <c r="O15">
-        <v>0.1148050103785518</v>
+        <v>0.06551129587759326</v>
       </c>
       <c r="P15">
-        <v>0.1148050103785518</v>
+        <v>0.06551129587759325</v>
       </c>
       <c r="Q15">
-        <v>0.1270745849266667</v>
+        <v>0.2640941373693333</v>
       </c>
       <c r="R15">
-        <v>1.14367126434</v>
+        <v>2.376847236324</v>
       </c>
       <c r="S15">
-        <v>5.153995290411862E-05</v>
+        <v>5.889901916853877E-05</v>
       </c>
       <c r="T15">
-        <v>5.153995290411863E-05</v>
+        <v>5.889901916853876E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.01939666666666667</v>
+        <v>0.04031133333333333</v>
       </c>
       <c r="H16">
-        <v>0.05819</v>
+        <v>0.120934</v>
       </c>
       <c r="I16">
-        <v>0.0004489347000986592</v>
+        <v>0.0008990666171310454</v>
       </c>
       <c r="J16">
-        <v>0.0004489347000986592</v>
+        <v>0.0008990666171310454</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.250702333333333</v>
+        <v>4.268944666666666</v>
       </c>
       <c r="N16">
-        <v>12.752107</v>
+        <v>12.806834</v>
       </c>
       <c r="O16">
-        <v>0.07448862167812857</v>
+        <v>0.04268793224112385</v>
       </c>
       <c r="P16">
-        <v>0.07448862167812859</v>
+        <v>0.04268793224112385</v>
       </c>
       <c r="Q16">
-        <v>0.08244945625888887</v>
+        <v>0.1720868514395555</v>
       </c>
       <c r="R16">
-        <v>0.7420451063299999</v>
+        <v>1.548781662956</v>
       </c>
       <c r="S16">
-        <v>3.344052703383314E-05</v>
+        <v>3.837929483234651E-05</v>
       </c>
       <c r="T16">
-        <v>3.344052703383315E-05</v>
+        <v>3.837929483234651E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.01939666666666667</v>
+        <v>0.04031133333333333</v>
       </c>
       <c r="H17">
-        <v>0.05819</v>
+        <v>0.120934</v>
       </c>
       <c r="I17">
-        <v>0.0004489347000986592</v>
+        <v>0.0008990666171310454</v>
       </c>
       <c r="J17">
-        <v>0.0004489347000986592</v>
+        <v>0.0008990666171310454</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>10.951915</v>
+        <v>18.948881</v>
       </c>
       <c r="N17">
-        <v>32.855745</v>
+        <v>56.846643</v>
       </c>
       <c r="O17">
-        <v>0.191919590955288</v>
+        <v>0.1894820878071316</v>
       </c>
       <c r="P17">
-        <v>0.191919590955288</v>
+        <v>0.1894820878071315</v>
       </c>
       <c r="Q17">
-        <v>0.2124306446166667</v>
+        <v>0.7638546582846666</v>
       </c>
       <c r="R17">
-        <v>1.91187580155</v>
+        <v>6.874691924562</v>
       </c>
       <c r="S17">
-        <v>8.615936400856957E-05</v>
+        <v>0.0001703570196916855</v>
       </c>
       <c r="T17">
-        <v>8.615936400856958E-05</v>
+        <v>0.0001703570196916855</v>
       </c>
     </row>
   </sheetData>
